--- a/input.xlsx
+++ b/input.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t xml:space="preserve">source address</t>
   </si>
@@ -37,40 +37,37 @@
     <t xml:space="preserve">protocol</t>
   </si>
   <si>
-    <t xml:space="preserve">192.168.1.1</t>
+    <t xml:space="preserve">192.168.1.1,192.168.8.2-3</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.6.1-10</t>
   </si>
   <si>
+    <t xml:space="preserve">permit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.3.1-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8080,9090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deny</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.2.0/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.5.0/24</t>
+  </si>
+  <si>
     <t xml:space="preserve">8080,8081-8083</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.3.1-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8080,9090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.2.0/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.5.0/24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8080-8090</t>
   </si>
   <si>
     <t xml:space="preserve">udp</t>
@@ -83,11 +80,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -103,6 +101,11 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -147,7 +150,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -157,6 +160,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -180,12 +187,12 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="13.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.68"/>
   </cols>
@@ -214,48 +221,48 @@
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1" t="n">
+        <v>8090</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="E3" s="0" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/input.xlsx
+++ b/input.xlsx
@@ -37,31 +37,31 @@
     <t xml:space="preserve">protocol</t>
   </si>
   <si>
+    <t xml:space="preserve">192.168.2.0/24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.6.1-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">permit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tcp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.3.1-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">192.168.4.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8080,9090</t>
+  </si>
+  <si>
+    <t xml:space="preserve">deny</t>
+  </si>
+  <si>
     <t xml:space="preserve">192.168.1.1,192.168.8.2-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.6.1-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">permit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tcp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.3.1-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.4.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8080,9090</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deny</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.168.2.0/24</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.5.0/24</t>
@@ -187,7 +187,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
